--- a/2-PERSONAL/----PENDIENTES/2-ASIGANCION FAM/AKM ASIG FAM.xlsx
+++ b/2-PERSONAL/----PENDIENTES/2-ASIGANCION FAM/AKM ASIG FAM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\5-ASIGANCION FAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\2-ASIGANCION FAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06349CEF-43C8-451A-BF6A-1B508082E73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41EBEA-C500-439F-94F4-655B5C359BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>75667630</t>
+  </si>
+  <si>
+    <t>AQUITUARI PEREZ</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>47851453</t>
   </si>
 </sst>
 </file>
@@ -300,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,9 +320,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,12 +619,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -770,7 +779,7 @@
         <v>48135926</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44708</v>
       </c>
@@ -787,7 +796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44708</v>
       </c>
@@ -800,11 +809,11 @@
       <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44708</v>
       </c>
@@ -817,11 +826,11 @@
       <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44708</v>
       </c>
@@ -834,11 +843,11 @@
       <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>46949457</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44708</v>
       </c>
@@ -851,11 +860,11 @@
       <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44708</v>
       </c>
@@ -872,11 +881,28 @@
         <v>44</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44736</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:E16" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:E17" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="5" day="27" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2-PERSONAL/----PENDIENTES/2-ASIGANCION FAM/AKM ASIG FAM.xlsx
+++ b/2-PERSONAL/----PENDIENTES/2-ASIGANCION FAM/AKM ASIG FAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\2-ASIGANCION FAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41EBEA-C500-439F-94F4-655B5C359BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEEC0BE-CF7C-4708-A416-8A4E15F6E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$E$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>47851453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUIZ VALVERDE </t>
+  </si>
+  <si>
+    <t>FLOR DE MARIA</t>
+  </si>
+  <si>
+    <t>48104654</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44736</v>
       </c>
@@ -898,11 +907,28 @@
         <v>47</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44737</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:E17" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:E18" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="6" day="25" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
